--- a/Data/Market-SCFI-Trends.xlsx
+++ b/Data/Market-SCFI-Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29705"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C29AC9-ECAB-40E0-A3A0-12DBDBAF6A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743FB03-5A23-462F-B07A-98CD9E27E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIN Timeseries - W" sheetId="2" r:id="rId1"/>
@@ -532,22 +532,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S813"/>
+  <dimension ref="A1:S814"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B764" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A813" sqref="A813"/>
+      <selection pane="bottomRight" activeCell="A814" sqref="A814"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="19" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+    <col min="2" max="19" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="57" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>40102</v>
       </c>
@@ -687,7 +687,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>40109</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>40116</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>40123</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>40130</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>40137</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>40144</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>40151</v>
       </c>
@@ -918,7 +918,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>40158</v>
       </c>
@@ -959,7 +959,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>40165</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>40172</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>40193</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>40200</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>40207</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>40214</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>40221</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>40242</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>40249</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>40256</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>40263</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>40270</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>40277</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>40284</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>40291</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>40312</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>40319</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>40326</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>40333</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>40340</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>40347</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>40354</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>40361</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>40368</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>40375</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>40382</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>40389</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>40396</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>40403</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>40410</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>40417</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>40424</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>40431</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>40438</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>40466</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>40473</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>40480</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>40487</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>40494</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>40501</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>40508</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>40515</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>40522</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>40529</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>40536</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>40543</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>40550</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>40557</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>40564</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>40571</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>40585</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>40592</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>40599</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>40606</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
         <v>40613</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>40620</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
         <v>40627</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>40634</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>40641</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>40648</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>40655</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
         <v>40662</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>40669</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>40676</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
         <v>40683</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>40690</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>40697</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>40704</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" s="6">
         <v>40711</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
         <v>40718</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="6">
         <v>40725</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>40732</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" s="6">
         <v>40739</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>40746</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>40753</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>40760</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>40767</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A89" s="6">
         <v>40774</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
         <v>40781</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
         <v>40788</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92" s="6">
         <v>40795</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" s="6">
         <v>40802</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>40809</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
         <v>40816</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>40830</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>40837</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>40844</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>40851</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>40858</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>40865</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
         <v>40872</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
         <v>40879</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
         <v>40886</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
         <v>40893</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
         <v>40900</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>40907</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
         <v>40914</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
         <v>40921</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A110" s="6">
         <v>40928</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>40942</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
         <v>40949</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>40956</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>40963</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>40970</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
         <v>40977</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <v>40984</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <v>40991</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
         <v>40998</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
         <v>41005</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <v>41012</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>41019</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
         <v>41026</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
         <v>41033</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <v>41040</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
         <v>41047</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
         <v>41054</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <v>41061</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <v>41068</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <v>41075</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <v>41082</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
         <v>41089</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
         <v>41096</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A134" s="6">
         <v>41103</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A135" s="6">
         <v>41110</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <v>41117</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>41124</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>41131</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <v>41138</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <v>41145</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <v>41152</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>41159</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <v>41166</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <v>41173</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <v>41180</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <v>41194</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <v>41201</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <v>41208</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <v>41215</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <v>41222</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <v>41229</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <v>41236</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <v>41243</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <v>41250</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <v>41257</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <v>41264</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <v>41271</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <v>41278</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
         <v>41285</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A160" s="6">
         <v>41292</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A161" s="6">
         <v>41299</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
         <v>41306</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
         <v>41313</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A164" s="6">
         <v>41327</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <v>41334</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <v>41341</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <v>41348</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A168" s="6">
         <v>41355</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A169" s="6">
         <v>41362</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
         <v>41369</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A171" s="6">
         <v>41376</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A172" s="6">
         <v>41383</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A173" s="6">
         <v>41390</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A174" s="6">
         <v>41397</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A175" s="6">
         <v>41404</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A176" s="6">
         <v>41411</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A177" s="6">
         <v>41418</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A178" s="6">
         <v>41425</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A179" s="6">
         <v>41432</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A180" s="6">
         <v>41439</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A181" s="6">
         <v>41446</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A182" s="6">
         <v>41453</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A183" s="6">
         <v>41460</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A184" s="6">
         <v>41467</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A185" s="6">
         <v>41474</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A186" s="6">
         <v>41481</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A187" s="6">
         <v>41488</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A188" s="6">
         <v>41495</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A189" s="6">
         <v>41502</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A190" s="6">
         <v>41509</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A191" s="6">
         <v>41516</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A192" s="6">
         <v>41523</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A193" s="6">
         <v>41530</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A194" s="6">
         <v>41537</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A195" s="6">
         <v>41544</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A196" s="6">
         <v>41558</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A197" s="6">
         <v>41565</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A198" s="6">
         <v>41572</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A199" s="6">
         <v>41579</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A200" s="6">
         <v>41586</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A201" s="6">
         <v>41593</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A202" s="6">
         <v>41600</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A203" s="6">
         <v>41607</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A204" s="6">
         <v>41614</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A205" s="6">
         <v>41621</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A206" s="6">
         <v>41628</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A207" s="6">
         <v>41635</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A208" s="6">
         <v>41642</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A209" s="6">
         <v>41649</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A210" s="6">
         <v>41656</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A211" s="6">
         <v>41663</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A212" s="6">
         <v>41670</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A213" s="6">
         <v>41677</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A214" s="6">
         <v>41684</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A215" s="6">
         <v>41691</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A216" s="6">
         <v>41698</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A217" s="6">
         <v>41705</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A218" s="6">
         <v>41712</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A219" s="6">
         <v>41719</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A220" s="6">
         <v>41726</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A221" s="6">
         <v>41733</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A222" s="6">
         <v>41740</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A223" s="6">
         <v>41747</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A224" s="6">
         <v>41754</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A225" s="6">
         <v>41761</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A226" s="6">
         <v>41768</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A227" s="6">
         <v>41775</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A228" s="6">
         <v>41782</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A229" s="6">
         <v>41789</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A230" s="6">
         <v>41796</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A231" s="6">
         <v>41803</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A232" s="6">
         <v>41810</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A233" s="6">
         <v>41817</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A234" s="6">
         <v>41824</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A235" s="6">
         <v>41831</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A236" s="6">
         <v>41838</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A237" s="6">
         <v>41845</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A238" s="6">
         <v>41852</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A239" s="6">
         <v>41859</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A240" s="6">
         <v>41866</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A241" s="6">
         <v>41873</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A242" s="6">
         <v>41880</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A243" s="6">
         <v>41887</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A244" s="6">
         <v>41894</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A245" s="6">
         <v>41901</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A246" s="6">
         <v>41908</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A247" s="6">
         <v>41922</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A248" s="6">
         <v>41929</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A249" s="6">
         <v>41936</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A250" s="6">
         <v>41943</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A251" s="6">
         <v>41950</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A252" s="6">
         <v>41957</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A253" s="6">
         <v>41964</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A254" s="6">
         <v>41971</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A255" s="6">
         <v>41978</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A256" s="6">
         <v>41985</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A257" s="6">
         <v>41992</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A258" s="6">
         <v>41999</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A259" s="6">
         <v>42006</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A260" s="6">
         <v>42013</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A261" s="6">
         <v>42020</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A262" s="6">
         <v>42027</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A263" s="6">
         <v>42034</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A264" s="6">
         <v>42041</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A265" s="6">
         <v>42048</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A266" s="6">
         <v>42062</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A267" s="6">
         <v>42069</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A268" s="6">
         <v>42076</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A269" s="6">
         <v>42083</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A270" s="6">
         <v>42090</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A271" s="6">
         <v>42097</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A272" s="6">
         <v>42104</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A273" s="6">
         <v>42111</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A274" s="6">
         <v>42118</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A275" s="6">
         <v>42125</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A276" s="6">
         <v>42132</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A277" s="6">
         <v>42139</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A278" s="6">
         <v>42146</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A279" s="6">
         <v>42153</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A280" s="6">
         <v>42160</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A281" s="6">
         <v>42167</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A282" s="6">
         <v>42174</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A283" s="6">
         <v>42181</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A284" s="6">
         <v>42188</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A285" s="6">
         <v>42195</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A286" s="6">
         <v>42202</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A287" s="6">
         <v>42209</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A288" s="6">
         <v>42216</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A289" s="6">
         <v>42223</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A290" s="6">
         <v>42230</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A291" s="6">
         <v>42237</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A292" s="6">
         <v>42244</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A293" s="6">
         <v>42251</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A294" s="6">
         <v>42258</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A295" s="6">
         <v>42265</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A296" s="6">
         <v>42272</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A297" s="6">
         <v>42286</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A298" s="6">
         <v>42293</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A299" s="6">
         <v>42300</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A300" s="6">
         <v>42307</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A301" s="6">
         <v>42314</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A302" s="6">
         <v>42321</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A303" s="6">
         <v>42328</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A304" s="6">
         <v>42335</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A305" s="6">
         <v>42342</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A306" s="6">
         <v>42349</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A307" s="6">
         <v>42356</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A308" s="6">
         <v>42363</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A309" s="6">
         <v>42370</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A310" s="6">
         <v>42377</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A311" s="6">
         <v>42384</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A312" s="6">
         <v>42391</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A313" s="6">
         <v>42398</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A314" s="6">
         <v>42405</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A315" s="6">
         <v>42412</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A316" s="6">
         <v>42419</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A317" s="6">
         <v>42426</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A318" s="6">
         <v>42433</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A319" s="6">
         <v>42440</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A320" s="6">
         <v>42447</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A321" s="6">
         <v>42454</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A322" s="6">
         <v>42461</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A323" s="6">
         <v>42468</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A324" s="6">
         <v>42475</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A325" s="6">
         <v>42482</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A326" s="6">
         <v>42489</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A327" s="6">
         <v>42496</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A328" s="6">
         <v>42503</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A329" s="6">
         <v>42510</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A330" s="6">
         <v>42517</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A331" s="6">
         <v>42524</v>
       </c>
@@ -18517,7 +18517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A332" s="6">
         <v>42531</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A333" s="6">
         <v>42538</v>
       </c>
@@ -18627,7 +18627,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A334" s="6">
         <v>42545</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A335" s="6">
         <v>42552</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A336" s="6">
         <v>42559</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A337" s="6">
         <v>42566</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A338" s="6">
         <v>42573</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A339" s="6">
         <v>42580</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A340" s="6">
         <v>42587</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A341" s="6">
         <v>42594</v>
       </c>
@@ -19067,7 +19067,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A342" s="6">
         <v>42601</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A343" s="6">
         <v>42608</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A344" s="6">
         <v>42615</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A345" s="6">
         <v>42622</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A346" s="6">
         <v>42629</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A347" s="6">
         <v>42636</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A348" s="6">
         <v>42643</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A349" s="6">
         <v>42657</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A350" s="6">
         <v>42664</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A351" s="6">
         <v>42671</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A352" s="6">
         <v>42678</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A353" s="6">
         <v>42685</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A354" s="6">
         <v>42692</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A355" s="6">
         <v>42699</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A356" s="6">
         <v>42706</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A357" s="6">
         <v>42713</v>
       </c>
@@ -19947,7 +19947,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A358" s="6">
         <v>42720</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A359" s="6">
         <v>42727</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A360" s="6">
         <v>42734</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A361" s="6">
         <v>42741</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A362" s="6">
         <v>42748</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A363" s="6">
         <v>42755</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A364" s="6">
         <v>42762</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A365" s="6">
         <v>42769</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A366" s="6">
         <v>42776</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A367" s="6">
         <v>42783</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A368" s="6">
         <v>42790</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A369" s="6">
         <v>42797</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A370" s="6">
         <v>42804</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A371" s="6">
         <v>42811</v>
       </c>
@@ -20717,7 +20717,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A372" s="6">
         <v>42818</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A373" s="6">
         <v>42825</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A374" s="6">
         <v>42832</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A375" s="6">
         <v>42839</v>
       </c>
@@ -20937,7 +20937,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A376" s="6">
         <v>42846</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A377" s="6">
         <v>42853</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A378" s="6">
         <v>42860</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A379" s="6">
         <v>42867</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A380" s="6">
         <v>42874</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A381" s="6">
         <v>42881</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A382" s="6">
         <v>42888</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A383" s="6">
         <v>42895</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A384" s="6">
         <v>42902</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A385" s="6">
         <v>42909</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A386" s="6">
         <v>42916</v>
       </c>
@@ -21538,7 +21538,7 @@
       <c r="R386" s="5"/>
       <c r="S386" s="5"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A387" s="6">
         <v>42923</v>
       </c>
@@ -21589,7 +21589,7 @@
       <c r="R387" s="5"/>
       <c r="S387" s="5"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A388" s="6">
         <v>42930</v>
       </c>
@@ -21640,7 +21640,7 @@
       <c r="R388" s="5"/>
       <c r="S388" s="5"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A389" s="6">
         <v>42937</v>
       </c>
@@ -21691,7 +21691,7 @@
       <c r="R389" s="5"/>
       <c r="S389" s="5"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A390" s="6">
         <v>42944</v>
       </c>
@@ -21742,7 +21742,7 @@
       <c r="R390" s="5"/>
       <c r="S390" s="5"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A391" s="6">
         <v>42951</v>
       </c>
@@ -21793,7 +21793,7 @@
       <c r="R391" s="5"/>
       <c r="S391" s="5"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A392" s="6">
         <v>42958</v>
       </c>
@@ -21844,7 +21844,7 @@
       <c r="R392" s="5"/>
       <c r="S392" s="5"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A393" s="6">
         <v>42965</v>
       </c>
@@ -21895,7 +21895,7 @@
       <c r="R393" s="5"/>
       <c r="S393" s="5"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A394" s="6">
         <v>42972</v>
       </c>
@@ -21946,7 +21946,7 @@
       <c r="R394" s="5"/>
       <c r="S394" s="5"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A395" s="6">
         <v>42979</v>
       </c>
@@ -21997,7 +21997,7 @@
       <c r="R395" s="5"/>
       <c r="S395" s="5"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A396" s="6">
         <v>42986</v>
       </c>
@@ -22048,7 +22048,7 @@
       <c r="R396" s="5"/>
       <c r="S396" s="5"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A397" s="6">
         <v>42993</v>
       </c>
@@ -22099,7 +22099,7 @@
       <c r="R397" s="5"/>
       <c r="S397" s="5"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A398" s="6">
         <v>43000</v>
       </c>
@@ -22150,7 +22150,7 @@
       <c r="R398" s="5"/>
       <c r="S398" s="5"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A399" s="6">
         <v>43007</v>
       </c>
@@ -22201,7 +22201,7 @@
       <c r="R399" s="5"/>
       <c r="S399" s="5"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A400" s="6">
         <v>43021</v>
       </c>
@@ -22252,7 +22252,7 @@
       <c r="R400" s="5"/>
       <c r="S400" s="5"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A401" s="6">
         <v>43028</v>
       </c>
@@ -22303,7 +22303,7 @@
       <c r="R401" s="5"/>
       <c r="S401" s="5"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A402" s="6">
         <v>43035</v>
       </c>
@@ -22354,7 +22354,7 @@
       <c r="R402" s="5"/>
       <c r="S402" s="5"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A403" s="6">
         <v>43042</v>
       </c>
@@ -22405,7 +22405,7 @@
       <c r="R403" s="5"/>
       <c r="S403" s="5"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A404" s="6">
         <v>43049</v>
       </c>
@@ -22456,7 +22456,7 @@
       <c r="R404" s="5"/>
       <c r="S404" s="5"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A405" s="6">
         <v>43056</v>
       </c>
@@ -22507,7 +22507,7 @@
       <c r="R405" s="5"/>
       <c r="S405" s="5"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A406" s="6">
         <v>43063</v>
       </c>
@@ -22558,7 +22558,7 @@
       <c r="R406" s="5"/>
       <c r="S406" s="5"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A407" s="6">
         <v>43070</v>
       </c>
@@ -22609,7 +22609,7 @@
       <c r="R407" s="5"/>
       <c r="S407" s="5"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A408" s="6">
         <v>43077</v>
       </c>
@@ -22660,7 +22660,7 @@
       <c r="R408" s="5"/>
       <c r="S408" s="5"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A409" s="6">
         <v>43084</v>
       </c>
@@ -22711,7 +22711,7 @@
       <c r="R409" s="5"/>
       <c r="S409" s="5"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A410" s="6">
         <v>43091</v>
       </c>
@@ -22762,7 +22762,7 @@
       <c r="R410" s="5"/>
       <c r="S410" s="5"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A411" s="6">
         <v>43098</v>
       </c>
@@ -22813,7 +22813,7 @@
       <c r="R411" s="5"/>
       <c r="S411" s="5"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A412" s="6">
         <v>43105</v>
       </c>
@@ -22864,7 +22864,7 @@
       <c r="R412" s="5"/>
       <c r="S412" s="5"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A413" s="6">
         <v>43112</v>
       </c>
@@ -22915,7 +22915,7 @@
       <c r="R413" s="5"/>
       <c r="S413" s="5"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A414" s="6">
         <v>43119</v>
       </c>
@@ -22966,7 +22966,7 @@
       <c r="R414" s="5"/>
       <c r="S414" s="5"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A415" s="6">
         <v>43126</v>
       </c>
@@ -23017,7 +23017,7 @@
       <c r="R415" s="5"/>
       <c r="S415" s="5"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A416" s="6">
         <v>43133</v>
       </c>
@@ -23068,7 +23068,7 @@
       <c r="R416" s="5"/>
       <c r="S416" s="5"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A417" s="6">
         <v>43140</v>
       </c>
@@ -23119,7 +23119,7 @@
       <c r="R417" s="5"/>
       <c r="S417" s="5"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A418" s="6">
         <v>43147</v>
       </c>
@@ -23170,7 +23170,7 @@
       <c r="R418" s="5"/>
       <c r="S418" s="5"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A419" s="6">
         <v>43154</v>
       </c>
@@ -23221,7 +23221,7 @@
       <c r="R419" s="5"/>
       <c r="S419" s="5"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A420" s="6">
         <v>43161</v>
       </c>
@@ -23272,7 +23272,7 @@
       <c r="R420" s="5"/>
       <c r="S420" s="5"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A421" s="6">
         <v>43168</v>
       </c>
@@ -23323,7 +23323,7 @@
       <c r="R421" s="5"/>
       <c r="S421" s="5"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A422" s="6">
         <v>43175</v>
       </c>
@@ -23374,7 +23374,7 @@
       <c r="R422" s="5"/>
       <c r="S422" s="5"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A423" s="6">
         <v>43182</v>
       </c>
@@ -23425,7 +23425,7 @@
       <c r="R423" s="5"/>
       <c r="S423" s="5"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A424" s="6">
         <v>43189</v>
       </c>
@@ -23476,7 +23476,7 @@
       <c r="R424" s="5"/>
       <c r="S424" s="5"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A425" s="6">
         <v>43196</v>
       </c>
@@ -23527,7 +23527,7 @@
       <c r="R425" s="5"/>
       <c r="S425" s="5"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A426" s="6">
         <v>43203</v>
       </c>
@@ -23578,7 +23578,7 @@
       <c r="R426" s="5"/>
       <c r="S426" s="5"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A427" s="6">
         <v>43210</v>
       </c>
@@ -23629,7 +23629,7 @@
       <c r="R427" s="5"/>
       <c r="S427" s="5"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A428" s="6">
         <v>43217</v>
       </c>
@@ -23680,7 +23680,7 @@
       <c r="R428" s="5"/>
       <c r="S428" s="5"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A429" s="6">
         <v>43224</v>
       </c>
@@ -23731,7 +23731,7 @@
       <c r="R429" s="5"/>
       <c r="S429" s="5"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A430" s="6">
         <v>43231</v>
       </c>
@@ -23782,7 +23782,7 @@
       <c r="R430" s="5"/>
       <c r="S430" s="5"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A431" s="6">
         <v>43238</v>
       </c>
@@ -23833,7 +23833,7 @@
       <c r="R431" s="5"/>
       <c r="S431" s="5"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A432" s="6">
         <v>43245</v>
       </c>
@@ -23884,7 +23884,7 @@
       <c r="R432" s="5"/>
       <c r="S432" s="5"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A433" s="6">
         <v>43252</v>
       </c>
@@ -23935,7 +23935,7 @@
       <c r="R433" s="5"/>
       <c r="S433" s="5"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A434" s="6">
         <v>43259</v>
       </c>
@@ -23986,7 +23986,7 @@
       <c r="R434" s="5"/>
       <c r="S434" s="5"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A435" s="6">
         <v>43266</v>
       </c>
@@ -24037,7 +24037,7 @@
       <c r="R435" s="5"/>
       <c r="S435" s="5"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A436" s="6">
         <v>43273</v>
       </c>
@@ -24088,7 +24088,7 @@
       <c r="R436" s="5"/>
       <c r="S436" s="5"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A437" s="6">
         <v>43280</v>
       </c>
@@ -24139,7 +24139,7 @@
       <c r="R437" s="5"/>
       <c r="S437" s="5"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A438" s="6">
         <v>43287</v>
       </c>
@@ -24190,7 +24190,7 @@
       <c r="R438" s="5"/>
       <c r="S438" s="5"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A439" s="6">
         <v>43294</v>
       </c>
@@ -24241,7 +24241,7 @@
       <c r="R439" s="5"/>
       <c r="S439" s="5"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A440" s="6">
         <v>43301</v>
       </c>
@@ -24292,7 +24292,7 @@
       <c r="R440" s="5"/>
       <c r="S440" s="5"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A441" s="6">
         <v>43308</v>
       </c>
@@ -24343,7 +24343,7 @@
       <c r="R441" s="5"/>
       <c r="S441" s="5"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A442" s="6">
         <v>43315</v>
       </c>
@@ -24394,7 +24394,7 @@
       <c r="R442" s="5"/>
       <c r="S442" s="5"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A443" s="6">
         <v>43322</v>
       </c>
@@ -24445,7 +24445,7 @@
       <c r="R443" s="5"/>
       <c r="S443" s="5"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A444" s="6">
         <v>43329</v>
       </c>
@@ -24496,7 +24496,7 @@
       <c r="R444" s="5"/>
       <c r="S444" s="5"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A445" s="6">
         <v>43336</v>
       </c>
@@ -24547,7 +24547,7 @@
       <c r="R445" s="5"/>
       <c r="S445" s="5"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A446" s="6">
         <v>43343</v>
       </c>
@@ -24598,7 +24598,7 @@
       <c r="R446" s="5"/>
       <c r="S446" s="5"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A447" s="6">
         <v>43350</v>
       </c>
@@ -24649,7 +24649,7 @@
       <c r="R447" s="5"/>
       <c r="S447" s="5"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A448" s="6">
         <v>43357</v>
       </c>
@@ -24700,7 +24700,7 @@
       <c r="R448" s="5"/>
       <c r="S448" s="5"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A449" s="6">
         <v>43364</v>
       </c>
@@ -24751,7 +24751,7 @@
       <c r="R449" s="5"/>
       <c r="S449" s="5"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A450" s="6">
         <v>43371</v>
       </c>
@@ -24802,7 +24802,7 @@
       <c r="R450" s="5"/>
       <c r="S450" s="5"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A451" s="6">
         <v>43385</v>
       </c>
@@ -24853,7 +24853,7 @@
       <c r="R451" s="5"/>
       <c r="S451" s="5"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A452" s="6">
         <v>43392</v>
       </c>
@@ -24904,7 +24904,7 @@
       <c r="R452" s="5"/>
       <c r="S452" s="5"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A453" s="6">
         <v>43399</v>
       </c>
@@ -24955,7 +24955,7 @@
       <c r="R453" s="5"/>
       <c r="S453" s="5"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A454" s="6">
         <v>43406</v>
       </c>
@@ -25006,7 +25006,7 @@
       <c r="R454" s="5"/>
       <c r="S454" s="5"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A455" s="6">
         <v>43413</v>
       </c>
@@ -25057,7 +25057,7 @@
       <c r="R455" s="5"/>
       <c r="S455" s="5"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A456" s="6">
         <v>43420</v>
       </c>
@@ -25108,7 +25108,7 @@
       <c r="R456" s="5"/>
       <c r="S456" s="5"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A457" s="6">
         <v>43427</v>
       </c>
@@ -25159,7 +25159,7 @@
       <c r="R457" s="5"/>
       <c r="S457" s="5"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A458" s="6">
         <v>43434</v>
       </c>
@@ -25210,7 +25210,7 @@
       <c r="R458" s="5"/>
       <c r="S458" s="5"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A459" s="6">
         <v>43441</v>
       </c>
@@ -25261,7 +25261,7 @@
       <c r="R459" s="5"/>
       <c r="S459" s="5"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A460" s="6">
         <v>43448</v>
       </c>
@@ -25312,7 +25312,7 @@
       <c r="R460" s="5"/>
       <c r="S460" s="5"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A461" s="6">
         <v>43455</v>
       </c>
@@ -25363,7 +25363,7 @@
       <c r="R461" s="5"/>
       <c r="S461" s="5"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A462" s="6">
         <v>43462</v>
       </c>
@@ -25414,7 +25414,7 @@
       <c r="R462" s="5"/>
       <c r="S462" s="5"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A463" s="6">
         <v>43469</v>
       </c>
@@ -25465,7 +25465,7 @@
       <c r="R463" s="5"/>
       <c r="S463" s="5"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A464" s="6">
         <v>43476</v>
       </c>
@@ -25516,7 +25516,7 @@
       <c r="R464" s="5"/>
       <c r="S464" s="5"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A465" s="6">
         <v>43483</v>
       </c>
@@ -25567,7 +25567,7 @@
       <c r="R465" s="5"/>
       <c r="S465" s="5"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A466" s="6">
         <v>43490</v>
       </c>
@@ -25618,7 +25618,7 @@
       <c r="R466" s="5"/>
       <c r="S466" s="5"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A467" s="6">
         <v>43497</v>
       </c>
@@ -25669,7 +25669,7 @@
       <c r="R467" s="5"/>
       <c r="S467" s="5"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A468" s="6">
         <v>43511</v>
       </c>
@@ -25720,7 +25720,7 @@
       <c r="R468" s="5"/>
       <c r="S468" s="5"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A469" s="6">
         <v>43518</v>
       </c>
@@ -25771,7 +25771,7 @@
       <c r="R469" s="5"/>
       <c r="S469" s="5"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A470" s="6">
         <v>43525</v>
       </c>
@@ -25822,7 +25822,7 @@
       <c r="R470" s="5"/>
       <c r="S470" s="5"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A471" s="6">
         <v>43532</v>
       </c>
@@ -25873,7 +25873,7 @@
       <c r="R471" s="5"/>
       <c r="S471" s="5"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A472" s="6">
         <v>43539</v>
       </c>
@@ -25924,7 +25924,7 @@
       <c r="R472" s="5"/>
       <c r="S472" s="5"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A473" s="6">
         <v>43546</v>
       </c>
@@ -25975,7 +25975,7 @@
       <c r="R473" s="5"/>
       <c r="S473" s="5"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A474" s="6">
         <v>43553</v>
       </c>
@@ -26026,7 +26026,7 @@
       <c r="R474" s="5"/>
       <c r="S474" s="5"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A475" s="6">
         <v>43560</v>
       </c>
@@ -26077,7 +26077,7 @@
       <c r="R475" s="5"/>
       <c r="S475" s="5"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A476" s="6">
         <v>43567</v>
       </c>
@@ -26128,7 +26128,7 @@
       <c r="R476" s="5"/>
       <c r="S476" s="5"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A477" s="6">
         <v>43574</v>
       </c>
@@ -26179,7 +26179,7 @@
       <c r="R477" s="5"/>
       <c r="S477" s="5"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A478" s="6">
         <v>43581</v>
       </c>
@@ -26230,7 +26230,7 @@
       <c r="R478" s="5"/>
       <c r="S478" s="5"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A479" s="6">
         <v>43595</v>
       </c>
@@ -26281,7 +26281,7 @@
       <c r="R479" s="5"/>
       <c r="S479" s="5"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A480" s="6">
         <v>43602</v>
       </c>
@@ -26332,7 +26332,7 @@
       <c r="R480" s="5"/>
       <c r="S480" s="5"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A481" s="6">
         <v>43609</v>
       </c>
@@ -26383,7 +26383,7 @@
       <c r="R481" s="5"/>
       <c r="S481" s="5"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A482" s="6">
         <v>43616</v>
       </c>
@@ -26434,7 +26434,7 @@
       <c r="R482" s="5"/>
       <c r="S482" s="5"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A483" s="6">
         <v>43623</v>
       </c>
@@ -26485,7 +26485,7 @@
       <c r="R483" s="5"/>
       <c r="S483" s="5"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A484" s="6">
         <v>43630</v>
       </c>
@@ -26536,7 +26536,7 @@
       <c r="R484" s="5"/>
       <c r="S484" s="5"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A485" s="6">
         <v>43637</v>
       </c>
@@ -26587,7 +26587,7 @@
       <c r="R485" s="5"/>
       <c r="S485" s="5"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A486" s="6">
         <v>43644</v>
       </c>
@@ -26638,7 +26638,7 @@
       <c r="R486" s="5"/>
       <c r="S486" s="5"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A487" s="6">
         <v>43651</v>
       </c>
@@ -26689,7 +26689,7 @@
       <c r="R487" s="5"/>
       <c r="S487" s="5"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A488" s="6">
         <v>43658</v>
       </c>
@@ -26740,7 +26740,7 @@
       <c r="R488" s="5"/>
       <c r="S488" s="5"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A489" s="6">
         <v>43665</v>
       </c>
@@ -26791,7 +26791,7 @@
       <c r="R489" s="5"/>
       <c r="S489" s="5"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A490" s="6">
         <v>43672</v>
       </c>
@@ -26842,7 +26842,7 @@
       <c r="R490" s="5"/>
       <c r="S490" s="5"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A491" s="6">
         <v>43679</v>
       </c>
@@ -26893,7 +26893,7 @@
       <c r="R491" s="5"/>
       <c r="S491" s="5"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A492" s="6">
         <v>43686</v>
       </c>
@@ -26944,7 +26944,7 @@
       <c r="R492" s="5"/>
       <c r="S492" s="5"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A493" s="6">
         <v>43693</v>
       </c>
@@ -26995,7 +26995,7 @@
       <c r="R493" s="5"/>
       <c r="S493" s="5"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A494" s="6">
         <v>43700</v>
       </c>
@@ -27046,7 +27046,7 @@
       <c r="R494" s="5"/>
       <c r="S494" s="5"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A495" s="6">
         <v>43707</v>
       </c>
@@ -27097,7 +27097,7 @@
       <c r="R495" s="5"/>
       <c r="S495" s="5"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A496" s="6">
         <v>43714</v>
       </c>
@@ -27148,7 +27148,7 @@
       <c r="R496" s="5"/>
       <c r="S496" s="5"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A497" s="6">
         <v>43721</v>
       </c>
@@ -27199,7 +27199,7 @@
       <c r="R497" s="5"/>
       <c r="S497" s="5"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A498" s="6">
         <v>43728</v>
       </c>
@@ -27250,7 +27250,7 @@
       <c r="R498" s="5"/>
       <c r="S498" s="5"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A499" s="6">
         <v>43735</v>
       </c>
@@ -27301,7 +27301,7 @@
       <c r="R499" s="5"/>
       <c r="S499" s="5"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A500" s="6">
         <v>43749</v>
       </c>
@@ -27352,7 +27352,7 @@
       <c r="R500" s="5"/>
       <c r="S500" s="5"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A501" s="6">
         <v>43756</v>
       </c>
@@ -27403,7 +27403,7 @@
       <c r="R501" s="5"/>
       <c r="S501" s="5"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A502" s="6">
         <v>43763</v>
       </c>
@@ -27454,7 +27454,7 @@
       <c r="R502" s="5"/>
       <c r="S502" s="5"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A503" s="6">
         <v>43770</v>
       </c>
@@ -27505,7 +27505,7 @@
       <c r="R503" s="5"/>
       <c r="S503" s="5"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A504" s="6">
         <v>43777</v>
       </c>
@@ -27556,7 +27556,7 @@
       <c r="R504" s="5"/>
       <c r="S504" s="5"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A505" s="6">
         <v>43784</v>
       </c>
@@ -27607,7 +27607,7 @@
       <c r="R505" s="5"/>
       <c r="S505" s="5"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A506" s="6">
         <v>43791</v>
       </c>
@@ -27658,7 +27658,7 @@
       <c r="R506" s="5"/>
       <c r="S506" s="5"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A507" s="6">
         <v>43798</v>
       </c>
@@ -27709,7 +27709,7 @@
       <c r="R507" s="5"/>
       <c r="S507" s="5"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A508" s="6">
         <v>43805</v>
       </c>
@@ -27760,7 +27760,7 @@
       <c r="R508" s="5"/>
       <c r="S508" s="5"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A509" s="6">
         <v>43812</v>
       </c>
@@ -27811,7 +27811,7 @@
       <c r="R509" s="5"/>
       <c r="S509" s="5"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A510" s="6">
         <v>43819</v>
       </c>
@@ -27862,7 +27862,7 @@
       <c r="R510" s="5"/>
       <c r="S510" s="5"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A511" s="6">
         <v>43826</v>
       </c>
@@ -27913,7 +27913,7 @@
       <c r="R511" s="5"/>
       <c r="S511" s="5"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A512" s="6">
         <v>43833</v>
       </c>
@@ -27964,7 +27964,7 @@
       <c r="R512" s="5"/>
       <c r="S512" s="5"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A513" s="6">
         <v>43840</v>
       </c>
@@ -28015,7 +28015,7 @@
       <c r="R513" s="5"/>
       <c r="S513" s="5"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A514" s="6">
         <v>43847</v>
       </c>
@@ -28066,7 +28066,7 @@
       <c r="R514" s="5"/>
       <c r="S514" s="5"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A515" s="6">
         <v>43854</v>
       </c>
@@ -28117,7 +28117,7 @@
       <c r="R515" s="5"/>
       <c r="S515" s="5"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A516" s="6">
         <v>43875</v>
       </c>
@@ -28168,7 +28168,7 @@
       <c r="R516" s="5"/>
       <c r="S516" s="5"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A517" s="6">
         <v>43882</v>
       </c>
@@ -28219,7 +28219,7 @@
       <c r="R517" s="5"/>
       <c r="S517" s="5"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A518" s="6">
         <v>43889</v>
       </c>
@@ -28270,7 +28270,7 @@
       <c r="R518" s="5"/>
       <c r="S518" s="5"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A519" s="6">
         <v>43896</v>
       </c>
@@ -28321,7 +28321,7 @@
       <c r="R519" s="5"/>
       <c r="S519" s="5"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A520" s="6">
         <v>43903</v>
       </c>
@@ -28372,7 +28372,7 @@
       <c r="R520" s="5"/>
       <c r="S520" s="5"/>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A521" s="6">
         <v>43910</v>
       </c>
@@ -28423,7 +28423,7 @@
       <c r="R521" s="5"/>
       <c r="S521" s="5"/>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A522" s="6">
         <v>43917</v>
       </c>
@@ -28474,7 +28474,7 @@
       <c r="R522" s="5"/>
       <c r="S522" s="5"/>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A523" s="6">
         <v>43924</v>
       </c>
@@ -28525,7 +28525,7 @@
       <c r="R523" s="5"/>
       <c r="S523" s="5"/>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A524" s="6">
         <v>43931</v>
       </c>
@@ -28576,7 +28576,7 @@
       <c r="R524" s="5"/>
       <c r="S524" s="5"/>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A525" s="6">
         <v>43938</v>
       </c>
@@ -28627,7 +28627,7 @@
       <c r="R525" s="5"/>
       <c r="S525" s="5"/>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A526" s="6">
         <v>43945</v>
       </c>
@@ -28678,7 +28678,7 @@
       <c r="R526" s="5"/>
       <c r="S526" s="5"/>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A527" s="6">
         <v>43952</v>
       </c>
@@ -28729,7 +28729,7 @@
       <c r="R527" s="5"/>
       <c r="S527" s="5"/>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A528" s="6">
         <v>43959</v>
       </c>
@@ -28780,7 +28780,7 @@
       <c r="R528" s="5"/>
       <c r="S528" s="5"/>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A529" s="6">
         <v>43966</v>
       </c>
@@ -28831,7 +28831,7 @@
       <c r="R529" s="5"/>
       <c r="S529" s="5"/>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A530" s="6">
         <v>43973</v>
       </c>
@@ -28882,7 +28882,7 @@
       <c r="R530" s="5"/>
       <c r="S530" s="5"/>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A531" s="6">
         <v>43980</v>
       </c>
@@ -28933,7 +28933,7 @@
       <c r="R531" s="5"/>
       <c r="S531" s="5"/>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A532" s="6">
         <v>43987</v>
       </c>
@@ -28984,7 +28984,7 @@
       <c r="R532" s="5"/>
       <c r="S532" s="5"/>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A533" s="6">
         <v>43994</v>
       </c>
@@ -29035,7 +29035,7 @@
       <c r="R533" s="5"/>
       <c r="S533" s="5"/>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A534" s="6">
         <v>44001</v>
       </c>
@@ -29086,7 +29086,7 @@
       <c r="R534" s="5"/>
       <c r="S534" s="5"/>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A535" s="6">
         <v>44008</v>
       </c>
@@ -29137,7 +29137,7 @@
       <c r="R535" s="5"/>
       <c r="S535" s="5"/>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A536" s="6">
         <v>44015</v>
       </c>
@@ -29188,7 +29188,7 @@
       <c r="R536" s="5"/>
       <c r="S536" s="5"/>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A537" s="6">
         <v>44022</v>
       </c>
@@ -29239,7 +29239,7 @@
       <c r="R537" s="5"/>
       <c r="S537" s="5"/>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A538" s="6">
         <v>44029</v>
       </c>
@@ -29290,7 +29290,7 @@
       <c r="R538" s="5"/>
       <c r="S538" s="5"/>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A539" s="6">
         <v>44036</v>
       </c>
@@ -29341,7 +29341,7 @@
       <c r="R539" s="5"/>
       <c r="S539" s="5"/>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A540" s="6">
         <v>44043</v>
       </c>
@@ -29392,7 +29392,7 @@
       <c r="R540" s="5"/>
       <c r="S540" s="5"/>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A541" s="6">
         <v>44050</v>
       </c>
@@ -29443,7 +29443,7 @@
       <c r="R541" s="5"/>
       <c r="S541" s="5"/>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A542" s="6">
         <v>44057</v>
       </c>
@@ -29494,7 +29494,7 @@
       <c r="R542" s="5"/>
       <c r="S542" s="5"/>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A543" s="6">
         <v>44064</v>
       </c>
@@ -29545,7 +29545,7 @@
       <c r="R543" s="5"/>
       <c r="S543" s="5"/>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A544" s="6">
         <v>44071</v>
       </c>
@@ -29596,7 +29596,7 @@
       <c r="R544" s="5"/>
       <c r="S544" s="5"/>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A545" s="6">
         <v>44078</v>
       </c>
@@ -29647,7 +29647,7 @@
       <c r="R545" s="5"/>
       <c r="S545" s="5"/>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A546" s="6">
         <v>44085</v>
       </c>
@@ -29698,7 +29698,7 @@
       <c r="R546" s="5"/>
       <c r="S546" s="5"/>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A547" s="6">
         <v>44092</v>
       </c>
@@ -29749,7 +29749,7 @@
       <c r="R547" s="5"/>
       <c r="S547" s="5"/>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A548" s="6">
         <v>44099</v>
       </c>
@@ -29800,7 +29800,7 @@
       <c r="R548" s="5"/>
       <c r="S548" s="5"/>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A549" s="6">
         <v>44106</v>
       </c>
@@ -29851,7 +29851,7 @@
       <c r="R549" s="5"/>
       <c r="S549" s="5"/>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A550" s="6">
         <v>44113</v>
       </c>
@@ -29902,7 +29902,7 @@
       <c r="R550" s="5"/>
       <c r="S550" s="5"/>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A551" s="6">
         <v>44120</v>
       </c>
@@ -29953,7 +29953,7 @@
       <c r="R551" s="5"/>
       <c r="S551" s="5"/>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A552" s="6">
         <v>44127</v>
       </c>
@@ -30004,7 +30004,7 @@
       <c r="R552" s="5"/>
       <c r="S552" s="5"/>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A553" s="6">
         <v>44134</v>
       </c>
@@ -30055,7 +30055,7 @@
       <c r="R553" s="5"/>
       <c r="S553" s="5"/>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A554" s="6">
         <v>44141</v>
       </c>
@@ -30106,7 +30106,7 @@
       <c r="R554" s="5"/>
       <c r="S554" s="5"/>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A555" s="6">
         <v>44148</v>
       </c>
@@ -30157,7 +30157,7 @@
       <c r="R555" s="5"/>
       <c r="S555" s="5"/>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A556" s="6">
         <v>44155</v>
       </c>
@@ -30208,7 +30208,7 @@
       <c r="R556" s="5"/>
       <c r="S556" s="5"/>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A557" s="6">
         <v>44162</v>
       </c>
@@ -30259,7 +30259,7 @@
       <c r="R557" s="5"/>
       <c r="S557" s="5"/>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A558" s="6">
         <v>44169</v>
       </c>
@@ -30310,7 +30310,7 @@
       <c r="R558" s="5"/>
       <c r="S558" s="5"/>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A559" s="6">
         <v>44176</v>
       </c>
@@ -30361,7 +30361,7 @@
       <c r="R559" s="5"/>
       <c r="S559" s="5"/>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A560" s="6">
         <v>44183</v>
       </c>
@@ -30412,7 +30412,7 @@
       <c r="R560" s="5"/>
       <c r="S560" s="5"/>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A561" s="6">
         <v>44190</v>
       </c>
@@ -30463,7 +30463,7 @@
       <c r="R561" s="5"/>
       <c r="S561" s="5"/>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A562" s="6">
         <v>44197</v>
       </c>
@@ -30514,7 +30514,7 @@
       <c r="R562" s="5"/>
       <c r="S562" s="5"/>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A563" s="6">
         <v>44204</v>
       </c>
@@ -30565,7 +30565,7 @@
       <c r="R563" s="5"/>
       <c r="S563" s="5"/>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A564" s="6">
         <v>44211</v>
       </c>
@@ -30616,7 +30616,7 @@
       <c r="R564" s="5"/>
       <c r="S564" s="5"/>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A565" s="6">
         <v>44218</v>
       </c>
@@ -30667,7 +30667,7 @@
       <c r="R565" s="5"/>
       <c r="S565" s="5"/>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A566" s="6">
         <v>44225</v>
       </c>
@@ -30718,7 +30718,7 @@
       <c r="R566" s="5"/>
       <c r="S566" s="5"/>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A567" s="6">
         <v>44232</v>
       </c>
@@ -30769,7 +30769,7 @@
       <c r="R567" s="5"/>
       <c r="S567" s="5"/>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A568" s="6">
         <v>44239</v>
       </c>
@@ -30820,7 +30820,7 @@
       <c r="R568" s="5"/>
       <c r="S568" s="5"/>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A569" s="6">
         <v>44246</v>
       </c>
@@ -30871,7 +30871,7 @@
       <c r="R569" s="5"/>
       <c r="S569" s="5"/>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A570" s="6">
         <v>44253</v>
       </c>
@@ -30922,7 +30922,7 @@
       <c r="R570" s="5"/>
       <c r="S570" s="5"/>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A571" s="6">
         <v>44260</v>
       </c>
@@ -30973,7 +30973,7 @@
       <c r="R571" s="5"/>
       <c r="S571" s="5"/>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A572" s="6">
         <v>44267</v>
       </c>
@@ -31024,7 +31024,7 @@
       <c r="R572" s="5"/>
       <c r="S572" s="5"/>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A573" s="6">
         <v>44274</v>
       </c>
@@ -31075,7 +31075,7 @@
       <c r="R573" s="5"/>
       <c r="S573" s="5"/>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A574" s="6">
         <v>44281</v>
       </c>
@@ -31126,7 +31126,7 @@
       <c r="R574" s="5"/>
       <c r="S574" s="5"/>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A575" s="6">
         <v>44288</v>
       </c>
@@ -31177,7 +31177,7 @@
       <c r="R575" s="5"/>
       <c r="S575" s="5"/>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A576" s="6">
         <v>44295</v>
       </c>
@@ -31228,7 +31228,7 @@
       <c r="R576" s="5"/>
       <c r="S576" s="5"/>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A577" s="6">
         <v>44302</v>
       </c>
@@ -31279,7 +31279,7 @@
       <c r="R577" s="5"/>
       <c r="S577" s="5"/>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A578" s="6">
         <v>44309</v>
       </c>
@@ -31330,7 +31330,7 @@
       <c r="R578" s="5"/>
       <c r="S578" s="5"/>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A579" s="6">
         <v>44316</v>
       </c>
@@ -31381,7 +31381,7 @@
       <c r="R579" s="5"/>
       <c r="S579" s="5"/>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A580" s="6">
         <v>44323</v>
       </c>
@@ -31432,7 +31432,7 @@
       <c r="R580" s="5"/>
       <c r="S580" s="5"/>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A581" s="6">
         <v>44330</v>
       </c>
@@ -31483,7 +31483,7 @@
       <c r="R581" s="5"/>
       <c r="S581" s="5"/>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A582" s="6">
         <v>44337</v>
       </c>
@@ -31534,7 +31534,7 @@
       <c r="R582" s="5"/>
       <c r="S582" s="5"/>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A583" s="6">
         <v>44344</v>
       </c>
@@ -31585,7 +31585,7 @@
       <c r="R583" s="5"/>
       <c r="S583" s="5"/>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A584" s="6">
         <v>44351</v>
       </c>
@@ -31636,7 +31636,7 @@
       <c r="R584" s="5"/>
       <c r="S584" s="5"/>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A585" s="6">
         <v>44358</v>
       </c>
@@ -31687,7 +31687,7 @@
       <c r="R585" s="5"/>
       <c r="S585" s="5"/>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A586" s="6">
         <v>44365</v>
       </c>
@@ -31738,7 +31738,7 @@
       <c r="R586" s="5"/>
       <c r="S586" s="5"/>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A587" s="6">
         <v>44372</v>
       </c>
@@ -31789,7 +31789,7 @@
       <c r="R587" s="5"/>
       <c r="S587" s="5"/>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A588" s="6">
         <v>44379</v>
       </c>
@@ -31840,7 +31840,7 @@
       <c r="R588" s="5"/>
       <c r="S588" s="5"/>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A589" s="6">
         <v>44386</v>
       </c>
@@ -31891,7 +31891,7 @@
       <c r="R589" s="5"/>
       <c r="S589" s="5"/>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A590" s="6">
         <v>44393</v>
       </c>
@@ -31942,7 +31942,7 @@
       <c r="R590" s="5"/>
       <c r="S590" s="5"/>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A591" s="6">
         <v>44400</v>
       </c>
@@ -31993,7 +31993,7 @@
       <c r="R591" s="5"/>
       <c r="S591" s="5"/>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A592" s="6">
         <v>44407</v>
       </c>
@@ -32044,7 +32044,7 @@
       <c r="R592" s="5"/>
       <c r="S592" s="5"/>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A593" s="6">
         <v>44414</v>
       </c>
@@ -32095,7 +32095,7 @@
       <c r="R593" s="5"/>
       <c r="S593" s="5"/>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A594" s="6">
         <v>44421</v>
       </c>
@@ -32146,7 +32146,7 @@
       <c r="R594" s="5"/>
       <c r="S594" s="5"/>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A595" s="6">
         <v>44428</v>
       </c>
@@ -32197,7 +32197,7 @@
       <c r="R595" s="5"/>
       <c r="S595" s="5"/>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A596" s="6">
         <v>44435</v>
       </c>
@@ -32248,7 +32248,7 @@
       <c r="R596" s="5"/>
       <c r="S596" s="5"/>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A597" s="6">
         <v>44442</v>
       </c>
@@ -32299,7 +32299,7 @@
       <c r="R597" s="5"/>
       <c r="S597" s="5"/>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A598" s="6">
         <v>44449</v>
       </c>
@@ -32350,7 +32350,7 @@
       <c r="R598" s="5"/>
       <c r="S598" s="5"/>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A599" s="6">
         <v>44456</v>
       </c>
@@ -32401,7 +32401,7 @@
       <c r="R599" s="5"/>
       <c r="S599" s="5"/>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A600" s="6">
         <v>44463</v>
       </c>
@@ -32452,7 +32452,7 @@
       <c r="R600" s="5"/>
       <c r="S600" s="5"/>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A601" s="6">
         <v>44470</v>
       </c>
@@ -32503,7 +32503,7 @@
       <c r="R601" s="5"/>
       <c r="S601" s="5"/>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A602" s="6">
         <v>44477</v>
       </c>
@@ -32554,7 +32554,7 @@
       <c r="R602" s="5"/>
       <c r="S602" s="5"/>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A603" s="6">
         <v>44484</v>
       </c>
@@ -32605,7 +32605,7 @@
       <c r="R603" s="5"/>
       <c r="S603" s="5"/>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A604" s="6">
         <v>44491</v>
       </c>
@@ -32656,7 +32656,7 @@
       <c r="R604" s="5"/>
       <c r="S604" s="5"/>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A605" s="6">
         <v>44498</v>
       </c>
@@ -32707,7 +32707,7 @@
       <c r="R605" s="5"/>
       <c r="S605" s="5"/>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A606" s="6">
         <v>44505</v>
       </c>
@@ -32758,7 +32758,7 @@
       <c r="R606" s="5"/>
       <c r="S606" s="5"/>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A607" s="6">
         <v>44512</v>
       </c>
@@ -32809,7 +32809,7 @@
       <c r="R607" s="5"/>
       <c r="S607" s="5"/>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A608" s="6">
         <v>44519</v>
       </c>
@@ -32860,7 +32860,7 @@
       <c r="R608" s="5"/>
       <c r="S608" s="5"/>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A609" s="6">
         <v>44526</v>
       </c>
@@ -32911,7 +32911,7 @@
       <c r="R609" s="5"/>
       <c r="S609" s="5"/>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A610" s="6">
         <v>44533</v>
       </c>
@@ -32962,7 +32962,7 @@
       <c r="R610" s="5"/>
       <c r="S610" s="5"/>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A611" s="6">
         <v>44540</v>
       </c>
@@ -33013,7 +33013,7 @@
       <c r="R611" s="5"/>
       <c r="S611" s="5"/>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A612" s="6">
         <v>44547</v>
       </c>
@@ -33064,7 +33064,7 @@
       <c r="R612" s="5"/>
       <c r="S612" s="5"/>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A613" s="6">
         <v>44554</v>
       </c>
@@ -33115,7 +33115,7 @@
       <c r="R613" s="5"/>
       <c r="S613" s="5"/>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A614" s="6">
         <v>44561</v>
       </c>
@@ -33166,7 +33166,7 @@
       <c r="R614" s="5"/>
       <c r="S614" s="5"/>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A615" s="6">
         <v>44568</v>
       </c>
@@ -33217,7 +33217,7 @@
       <c r="R615" s="5"/>
       <c r="S615" s="5"/>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A616" s="6">
         <v>44575</v>
       </c>
@@ -33268,7 +33268,7 @@
       <c r="R616" s="5"/>
       <c r="S616" s="5"/>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A617" s="6">
         <v>44582</v>
       </c>
@@ -33319,7 +33319,7 @@
       <c r="R617" s="5"/>
       <c r="S617" s="5"/>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A618" s="6">
         <v>44589</v>
       </c>
@@ -33370,7 +33370,7 @@
       <c r="R618" s="5"/>
       <c r="S618" s="5"/>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A619" s="6">
         <v>44603</v>
       </c>
@@ -33421,7 +33421,7 @@
       <c r="R619" s="5"/>
       <c r="S619" s="5"/>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A620" s="6">
         <v>44610</v>
       </c>
@@ -33472,7 +33472,7 @@
       <c r="R620" s="5"/>
       <c r="S620" s="5"/>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A621" s="6">
         <v>44617</v>
       </c>
@@ -33523,7 +33523,7 @@
       <c r="R621" s="5"/>
       <c r="S621" s="5"/>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A622" s="6">
         <v>44624</v>
       </c>
@@ -33574,7 +33574,7 @@
       <c r="R622" s="5"/>
       <c r="S622" s="5"/>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A623" s="6">
         <v>44631</v>
       </c>
@@ -33625,7 +33625,7 @@
       <c r="R623" s="5"/>
       <c r="S623" s="5"/>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A624" s="6">
         <v>44638</v>
       </c>
@@ -33676,7 +33676,7 @@
       <c r="R624" s="5"/>
       <c r="S624" s="5"/>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A625" s="6">
         <v>44645</v>
       </c>
@@ -33727,7 +33727,7 @@
       <c r="R625" s="5"/>
       <c r="S625" s="5"/>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A626" s="6">
         <v>44652</v>
       </c>
@@ -33778,7 +33778,7 @@
       <c r="R626" s="5"/>
       <c r="S626" s="5"/>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A627" s="6">
         <v>44659</v>
       </c>
@@ -33829,7 +33829,7 @@
       <c r="R627" s="5"/>
       <c r="S627" s="5"/>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A628" s="6">
         <v>44666</v>
       </c>
@@ -33880,7 +33880,7 @@
       <c r="R628" s="5"/>
       <c r="S628" s="5"/>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A629" s="6">
         <v>44673</v>
       </c>
@@ -33931,7 +33931,7 @@
       <c r="R629" s="5"/>
       <c r="S629" s="5"/>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A630" s="6">
         <v>44680</v>
       </c>
@@ -33982,7 +33982,7 @@
       <c r="R630" s="5"/>
       <c r="S630" s="5"/>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A631" s="6">
         <v>44687</v>
       </c>
@@ -34033,7 +34033,7 @@
       <c r="R631" s="5"/>
       <c r="S631" s="5"/>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A632" s="6">
         <v>44694</v>
       </c>
@@ -34084,7 +34084,7 @@
       <c r="R632" s="5"/>
       <c r="S632" s="5"/>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A633" s="6">
         <v>44701</v>
       </c>
@@ -34135,7 +34135,7 @@
       <c r="R633" s="5"/>
       <c r="S633" s="5"/>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A634" s="6">
         <v>44708</v>
       </c>
@@ -34186,7 +34186,7 @@
       <c r="R634" s="5"/>
       <c r="S634" s="5"/>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A635" s="6">
         <v>44715</v>
       </c>
@@ -34237,7 +34237,7 @@
       <c r="R635" s="5"/>
       <c r="S635" s="5"/>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A636" s="6">
         <v>44722</v>
       </c>
@@ -34288,7 +34288,7 @@
       <c r="R636" s="5"/>
       <c r="S636" s="5"/>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A637" s="6">
         <v>44729</v>
       </c>
@@ -34339,7 +34339,7 @@
       <c r="R637" s="5"/>
       <c r="S637" s="5"/>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A638" s="6">
         <v>44736</v>
       </c>
@@ -34390,7 +34390,7 @@
       <c r="R638" s="5"/>
       <c r="S638" s="5"/>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A639" s="6">
         <v>44743</v>
       </c>
@@ -34441,7 +34441,7 @@
       <c r="R639" s="5"/>
       <c r="S639" s="5"/>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A640" s="6">
         <v>44750</v>
       </c>
@@ -34492,7 +34492,7 @@
       <c r="R640" s="5"/>
       <c r="S640" s="5"/>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A641" s="6">
         <v>44757</v>
       </c>
@@ -34543,7 +34543,7 @@
       <c r="R641" s="5"/>
       <c r="S641" s="5"/>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A642" s="6">
         <v>44764</v>
       </c>
@@ -34594,7 +34594,7 @@
       <c r="R642" s="5"/>
       <c r="S642" s="5"/>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A643" s="6">
         <v>44771</v>
       </c>
@@ -34645,7 +34645,7 @@
       <c r="R643" s="5"/>
       <c r="S643" s="5"/>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A644" s="6">
         <v>44778</v>
       </c>
@@ -34696,7 +34696,7 @@
       <c r="R644" s="5"/>
       <c r="S644" s="5"/>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A645" s="6">
         <v>44785</v>
       </c>
@@ -34747,7 +34747,7 @@
       <c r="R645" s="5"/>
       <c r="S645" s="5"/>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A646" s="6">
         <v>44792</v>
       </c>
@@ -34798,7 +34798,7 @@
       <c r="R646" s="5"/>
       <c r="S646" s="5"/>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A647" s="6">
         <v>44799</v>
       </c>
@@ -34849,7 +34849,7 @@
       <c r="R647" s="5"/>
       <c r="S647" s="5"/>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A648" s="6">
         <v>44806</v>
       </c>
@@ -34900,7 +34900,7 @@
       <c r="R648" s="5"/>
       <c r="S648" s="5"/>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A649" s="6">
         <v>44813</v>
       </c>
@@ -34951,7 +34951,7 @@
       <c r="R649" s="5"/>
       <c r="S649" s="5"/>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A650" s="6">
         <v>44820</v>
       </c>
@@ -35002,7 +35002,7 @@
       <c r="R650" s="5"/>
       <c r="S650" s="5"/>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A651" s="6">
         <v>44827</v>
       </c>
@@ -35053,7 +35053,7 @@
       <c r="R651" s="5"/>
       <c r="S651" s="5"/>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A652" s="6">
         <v>44834</v>
       </c>
@@ -35104,7 +35104,7 @@
       <c r="R652" s="5"/>
       <c r="S652" s="5"/>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A653" s="6">
         <v>44848</v>
       </c>
@@ -35155,7 +35155,7 @@
       <c r="R653" s="5"/>
       <c r="S653" s="5"/>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A654" s="6">
         <v>44855</v>
       </c>
@@ -35206,7 +35206,7 @@
       <c r="R654" s="5"/>
       <c r="S654" s="5"/>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A655" s="6">
         <v>44862</v>
       </c>
@@ -35257,7 +35257,7 @@
       <c r="R655" s="5"/>
       <c r="S655" s="5"/>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A656" s="6">
         <v>44869</v>
       </c>
@@ -35308,7 +35308,7 @@
       <c r="R656" s="5"/>
       <c r="S656" s="5"/>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A657" s="6">
         <v>44876</v>
       </c>
@@ -35359,7 +35359,7 @@
       <c r="R657" s="5"/>
       <c r="S657" s="5"/>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A658" s="6">
         <v>44883</v>
       </c>
@@ -35410,7 +35410,7 @@
       <c r="R658" s="5"/>
       <c r="S658" s="5"/>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A659" s="6">
         <v>44890</v>
       </c>
@@ -35461,7 +35461,7 @@
       <c r="R659" s="5"/>
       <c r="S659" s="5"/>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A660" s="6">
         <v>44897</v>
       </c>
@@ -35512,7 +35512,7 @@
       <c r="R660" s="5"/>
       <c r="S660" s="5"/>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A661" s="6">
         <v>44904</v>
       </c>
@@ -35563,7 +35563,7 @@
       <c r="R661" s="5"/>
       <c r="S661" s="5"/>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A662" s="6">
         <v>44911</v>
       </c>
@@ -35614,7 +35614,7 @@
       <c r="R662" s="5"/>
       <c r="S662" s="5"/>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A663" s="6">
         <v>44918</v>
       </c>
@@ -35665,7 +35665,7 @@
       <c r="R663" s="5"/>
       <c r="S663" s="5"/>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A664" s="6">
         <v>44925</v>
       </c>
@@ -35716,7 +35716,7 @@
       <c r="R664" s="5"/>
       <c r="S664" s="5"/>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A665" s="6">
         <v>44932</v>
       </c>
@@ -35767,7 +35767,7 @@
       <c r="R665" s="5"/>
       <c r="S665" s="5"/>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A666" s="6">
         <v>44939</v>
       </c>
@@ -35818,7 +35818,7 @@
       <c r="R666" s="5"/>
       <c r="S666" s="5"/>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A667" s="6">
         <v>44946</v>
       </c>
@@ -35869,7 +35869,7 @@
       <c r="R667" s="5"/>
       <c r="S667" s="5"/>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A668" s="6">
         <v>44960</v>
       </c>
@@ -35920,7 +35920,7 @@
       <c r="R668" s="5"/>
       <c r="S668" s="5"/>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A669" s="6">
         <v>44967</v>
       </c>
@@ -35971,7 +35971,7 @@
       <c r="R669" s="5"/>
       <c r="S669" s="5"/>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A670" s="6">
         <v>44974</v>
       </c>
@@ -36022,7 +36022,7 @@
       <c r="R670" s="5"/>
       <c r="S670" s="5"/>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A671" s="6">
         <v>44981</v>
       </c>
@@ -36073,7 +36073,7 @@
       <c r="R671" s="5"/>
       <c r="S671" s="5"/>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A672" s="6">
         <v>44988</v>
       </c>
@@ -36124,7 +36124,7 @@
       <c r="R672" s="5"/>
       <c r="S672" s="5"/>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A673" s="6">
         <v>44995</v>
       </c>
@@ -36175,7 +36175,7 @@
       <c r="R673" s="5"/>
       <c r="S673" s="5"/>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A674" s="6">
         <v>45002</v>
       </c>
@@ -36226,7 +36226,7 @@
       <c r="R674" s="5"/>
       <c r="S674" s="5"/>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A675" s="6">
         <v>45009</v>
       </c>
@@ -36277,7 +36277,7 @@
       <c r="R675" s="5"/>
       <c r="S675" s="5"/>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A676" s="6">
         <v>45016</v>
       </c>
@@ -36328,7 +36328,7 @@
       <c r="R676" s="5"/>
       <c r="S676" s="5"/>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A677" s="6">
         <v>45023</v>
       </c>
@@ -36379,7 +36379,7 @@
       <c r="R677" s="5"/>
       <c r="S677" s="5"/>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A678" s="6">
         <v>45030</v>
       </c>
@@ -36430,7 +36430,7 @@
       <c r="R678" s="5"/>
       <c r="S678" s="5"/>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A679" s="6">
         <v>45037</v>
       </c>
@@ -36481,7 +36481,7 @@
       <c r="R679" s="5"/>
       <c r="S679" s="5"/>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A680" s="6">
         <v>45044</v>
       </c>
@@ -36532,7 +36532,7 @@
       <c r="R680" s="5"/>
       <c r="S680" s="5"/>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A681" s="6">
         <v>45051</v>
       </c>
@@ -36583,7 +36583,7 @@
       <c r="R681" s="5"/>
       <c r="S681" s="5"/>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A682" s="6">
         <v>45058</v>
       </c>
@@ -36634,7 +36634,7 @@
       <c r="R682" s="5"/>
       <c r="S682" s="5"/>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A683" s="6">
         <v>45065</v>
       </c>
@@ -36685,7 +36685,7 @@
       <c r="R683" s="5"/>
       <c r="S683" s="5"/>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A684" s="6">
         <v>45072</v>
       </c>
@@ -36736,7 +36736,7 @@
       <c r="R684" s="5"/>
       <c r="S684" s="5"/>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A685" s="6">
         <v>45079</v>
       </c>
@@ -36787,7 +36787,7 @@
       <c r="R685" s="5"/>
       <c r="S685" s="5"/>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A686" s="6">
         <v>45086</v>
       </c>
@@ -36838,7 +36838,7 @@
       <c r="R686" s="5"/>
       <c r="S686" s="5"/>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A687" s="6">
         <v>45093</v>
       </c>
@@ -36889,7 +36889,7 @@
       <c r="R687" s="5"/>
       <c r="S687" s="5"/>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A688" s="6">
         <v>45100</v>
       </c>
@@ -36940,7 +36940,7 @@
       <c r="R688" s="5"/>
       <c r="S688" s="5"/>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A689" s="6">
         <v>45107</v>
       </c>
@@ -36991,7 +36991,7 @@
       <c r="R689" s="5"/>
       <c r="S689" s="5"/>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A690" s="6">
         <v>45114</v>
       </c>
@@ -37042,7 +37042,7 @@
       <c r="R690" s="5"/>
       <c r="S690" s="5"/>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A691" s="6">
         <v>45121</v>
       </c>
@@ -37093,7 +37093,7 @@
       <c r="R691" s="5"/>
       <c r="S691" s="5"/>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A692" s="6">
         <v>45128</v>
       </c>
@@ -37144,7 +37144,7 @@
       <c r="R692" s="5"/>
       <c r="S692" s="5"/>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A693" s="6">
         <v>45135</v>
       </c>
@@ -37195,7 +37195,7 @@
       <c r="R693" s="5"/>
       <c r="S693" s="5"/>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A694" s="6">
         <v>45142</v>
       </c>
@@ -37246,7 +37246,7 @@
       <c r="R694" s="5"/>
       <c r="S694" s="5"/>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A695" s="6">
         <v>45149</v>
       </c>
@@ -37297,7 +37297,7 @@
       <c r="R695" s="5"/>
       <c r="S695" s="5"/>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A696" s="6">
         <v>45156</v>
       </c>
@@ -37348,7 +37348,7 @@
       <c r="R696" s="5"/>
       <c r="S696" s="5"/>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A697" s="6">
         <v>45163</v>
       </c>
@@ -37399,7 +37399,7 @@
       <c r="R697" s="5"/>
       <c r="S697" s="5"/>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A698" s="6">
         <v>45170</v>
       </c>
@@ -37450,7 +37450,7 @@
       <c r="R698" s="5"/>
       <c r="S698" s="5"/>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A699" s="6">
         <v>45177</v>
       </c>
@@ -37501,7 +37501,7 @@
       <c r="R699" s="5"/>
       <c r="S699" s="5"/>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A700" s="6">
         <v>45184</v>
       </c>
@@ -37552,7 +37552,7 @@
       <c r="R700" s="5"/>
       <c r="S700" s="5"/>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A701" s="6">
         <v>45191</v>
       </c>
@@ -37603,7 +37603,7 @@
       <c r="R701" s="5"/>
       <c r="S701" s="5"/>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A702" s="6">
         <v>45198</v>
       </c>
@@ -37654,7 +37654,7 @@
       <c r="R702" s="5"/>
       <c r="S702" s="5"/>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A703" s="6">
         <v>45212</v>
       </c>
@@ -37705,7 +37705,7 @@
       <c r="R703" s="5"/>
       <c r="S703" s="5"/>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A704" s="6">
         <v>45219</v>
       </c>
@@ -37756,7 +37756,7 @@
       <c r="R704" s="5"/>
       <c r="S704" s="5"/>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A705" s="6">
         <v>45226</v>
       </c>
@@ -37807,7 +37807,7 @@
       <c r="R705" s="5"/>
       <c r="S705" s="5"/>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A706" s="6">
         <v>45233</v>
       </c>
@@ -37858,7 +37858,7 @@
       <c r="R706" s="5"/>
       <c r="S706" s="5"/>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A707" s="6">
         <v>45240</v>
       </c>
@@ -37909,7 +37909,7 @@
       <c r="R707" s="5"/>
       <c r="S707" s="5"/>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A708" s="6">
         <v>45247</v>
       </c>
@@ -37960,7 +37960,7 @@
       <c r="R708" s="5"/>
       <c r="S708" s="5"/>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A709" s="6">
         <v>45254</v>
       </c>
@@ -38011,7 +38011,7 @@
       <c r="R709" s="5"/>
       <c r="S709" s="5"/>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A710" s="6">
         <v>45261</v>
       </c>
@@ -38062,7 +38062,7 @@
       <c r="R710" s="5"/>
       <c r="S710" s="5"/>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A711" s="6">
         <v>45268</v>
       </c>
@@ -38113,7 +38113,7 @@
       <c r="R711" s="5"/>
       <c r="S711" s="5"/>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A712" s="6">
         <v>45275</v>
       </c>
@@ -38164,7 +38164,7 @@
       <c r="R712" s="5"/>
       <c r="S712" s="5"/>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A713" s="6">
         <v>45282</v>
       </c>
@@ -38215,7 +38215,7 @@
       <c r="R713" s="5"/>
       <c r="S713" s="5"/>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A714" s="6">
         <v>45289</v>
       </c>
@@ -38266,7 +38266,7 @@
       <c r="R714" s="5"/>
       <c r="S714" s="5"/>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A715" s="6">
         <v>45296</v>
       </c>
@@ -38317,7 +38317,7 @@
       <c r="R715" s="5"/>
       <c r="S715" s="5"/>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A716" s="6">
         <v>45303</v>
       </c>
@@ -38368,7 +38368,7 @@
       <c r="R716" s="5"/>
       <c r="S716" s="5"/>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A717" s="6">
         <v>45310</v>
       </c>
@@ -38419,7 +38419,7 @@
       <c r="R717" s="5"/>
       <c r="S717" s="5"/>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A718" s="6">
         <v>45317</v>
       </c>
@@ -38470,7 +38470,7 @@
       <c r="R718" s="5"/>
       <c r="S718" s="5"/>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A719" s="6">
         <v>45324</v>
       </c>
@@ -38521,7 +38521,7 @@
       <c r="R719" s="5"/>
       <c r="S719" s="5"/>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A720" s="6">
         <v>45331</v>
       </c>
@@ -38572,7 +38572,7 @@
       <c r="R720" s="5"/>
       <c r="S720" s="5"/>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A721" s="6">
         <v>45345</v>
       </c>
@@ -38623,7 +38623,7 @@
       <c r="R721" s="5"/>
       <c r="S721" s="5"/>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A722" s="6">
         <v>45352</v>
       </c>
@@ -38674,7 +38674,7 @@
       <c r="R722" s="5"/>
       <c r="S722" s="5"/>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A723" s="6">
         <v>45359</v>
       </c>
@@ -38725,7 +38725,7 @@
       <c r="R723" s="5"/>
       <c r="S723" s="5"/>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A724" s="6">
         <v>45366</v>
       </c>
@@ -38776,7 +38776,7 @@
       <c r="R724" s="5"/>
       <c r="S724" s="5"/>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A725" s="6">
         <v>45373</v>
       </c>
@@ -38827,7 +38827,7 @@
       <c r="R725" s="5"/>
       <c r="S725" s="5"/>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A726" s="6">
         <v>45380</v>
       </c>
@@ -38878,7 +38878,7 @@
       <c r="R726" s="5"/>
       <c r="S726" s="5"/>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A727" s="6">
         <v>45387</v>
       </c>
@@ -38929,7 +38929,7 @@
       <c r="R727" s="5"/>
       <c r="S727" s="5"/>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A728" s="6">
         <v>45394</v>
       </c>
@@ -38980,7 +38980,7 @@
       <c r="R728" s="5"/>
       <c r="S728" s="5"/>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A729" s="6">
         <v>45401</v>
       </c>
@@ -39031,7 +39031,7 @@
       <c r="R729" s="5"/>
       <c r="S729" s="5"/>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A730" s="6">
         <v>45408</v>
       </c>
@@ -39082,7 +39082,7 @@
       <c r="R730" s="5"/>
       <c r="S730" s="5"/>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A731" s="6">
         <v>45422</v>
       </c>
@@ -39133,7 +39133,7 @@
       <c r="R731" s="5"/>
       <c r="S731" s="5"/>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A732" s="6">
         <v>45429</v>
       </c>
@@ -39184,7 +39184,7 @@
       <c r="R732" s="5"/>
       <c r="S732" s="5"/>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A733" s="6">
         <v>45436</v>
       </c>
@@ -39235,7 +39235,7 @@
       <c r="R733" s="5"/>
       <c r="S733" s="5"/>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A734" s="6">
         <v>45443</v>
       </c>
@@ -39286,7 +39286,7 @@
       <c r="R734" s="5"/>
       <c r="S734" s="5"/>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A735" s="6">
         <v>45450</v>
       </c>
@@ -39337,7 +39337,7 @@
       <c r="R735" s="5"/>
       <c r="S735" s="5"/>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A736" s="6">
         <v>45457</v>
       </c>
@@ -39388,7 +39388,7 @@
       <c r="R736" s="5"/>
       <c r="S736" s="5"/>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A737" s="6">
         <v>45464</v>
       </c>
@@ -39439,7 +39439,7 @@
       <c r="R737" s="5"/>
       <c r="S737" s="5"/>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A738" s="6">
         <v>45471</v>
       </c>
@@ -39490,7 +39490,7 @@
       <c r="R738" s="5"/>
       <c r="S738" s="5"/>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A739" s="6">
         <v>45478</v>
       </c>
@@ -39541,7 +39541,7 @@
       <c r="R739" s="5"/>
       <c r="S739" s="5"/>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A740" s="6">
         <v>45485</v>
       </c>
@@ -39592,7 +39592,7 @@
       <c r="R740" s="5"/>
       <c r="S740" s="5"/>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A741" s="6">
         <v>45492</v>
       </c>
@@ -39643,7 +39643,7 @@
       <c r="R741" s="5"/>
       <c r="S741" s="5"/>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A742" s="6">
         <v>45499</v>
       </c>
@@ -39694,7 +39694,7 @@
       <c r="R742" s="5"/>
       <c r="S742" s="5"/>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A743" s="6">
         <v>45506</v>
       </c>
@@ -39745,7 +39745,7 @@
       <c r="R743" s="5"/>
       <c r="S743" s="5"/>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A744" s="6">
         <v>45513</v>
       </c>
@@ -39796,7 +39796,7 @@
       <c r="R744" s="5"/>
       <c r="S744" s="5"/>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A745" s="6">
         <v>45520</v>
       </c>
@@ -39847,7 +39847,7 @@
       <c r="R745" s="5"/>
       <c r="S745" s="5"/>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A746" s="6">
         <v>45527</v>
       </c>
@@ -39898,7 +39898,7 @@
       <c r="R746" s="5"/>
       <c r="S746" s="5"/>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A747" s="6">
         <v>45534</v>
       </c>
@@ -39949,7 +39949,7 @@
       <c r="R747" s="5"/>
       <c r="S747" s="5"/>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A748" s="6">
         <v>45541</v>
       </c>
@@ -40000,7 +40000,7 @@
       <c r="R748" s="5"/>
       <c r="S748" s="5"/>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A749" s="6">
         <v>45548</v>
       </c>
@@ -40051,7 +40051,7 @@
       <c r="R749" s="5"/>
       <c r="S749" s="5"/>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A750" s="6">
         <v>45555</v>
       </c>
@@ -40102,7 +40102,7 @@
       <c r="R750" s="5"/>
       <c r="S750" s="5"/>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A751" s="6">
         <v>45562</v>
       </c>
@@ -40153,7 +40153,7 @@
       <c r="R751" s="5"/>
       <c r="S751" s="5"/>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A752" s="6">
         <v>45576</v>
       </c>
@@ -40204,7 +40204,7 @@
       <c r="R752" s="5"/>
       <c r="S752" s="5"/>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A753" s="6">
         <v>45583</v>
       </c>
@@ -40255,7 +40255,7 @@
       <c r="R753" s="5"/>
       <c r="S753" s="5"/>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A754" s="6">
         <v>45590</v>
       </c>
@@ -40306,7 +40306,7 @@
       <c r="R754" s="5"/>
       <c r="S754" s="5"/>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A755" s="6">
         <v>45597</v>
       </c>
@@ -40357,7 +40357,7 @@
       <c r="R755" s="5"/>
       <c r="S755" s="5"/>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A756" s="6">
         <v>45604</v>
       </c>
@@ -40408,7 +40408,7 @@
       <c r="R756" s="5"/>
       <c r="S756" s="5"/>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A757" s="6">
         <v>45611</v>
       </c>
@@ -40459,7 +40459,7 @@
       <c r="R757" s="5"/>
       <c r="S757" s="5"/>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A758" s="6">
         <v>45618</v>
       </c>
@@ -40510,7 +40510,7 @@
       <c r="R758" s="5"/>
       <c r="S758" s="5"/>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A759" s="6">
         <v>45625</v>
       </c>
@@ -40561,7 +40561,7 @@
       <c r="R759" s="5"/>
       <c r="S759" s="5"/>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A760" s="6">
         <v>45632</v>
       </c>
@@ -40612,7 +40612,7 @@
       <c r="R760" s="5"/>
       <c r="S760" s="5"/>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A761" s="6">
         <v>45639</v>
       </c>
@@ -40663,7 +40663,7 @@
       <c r="R761" s="5"/>
       <c r="S761" s="5"/>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A762" s="6">
         <v>45646</v>
       </c>
@@ -40714,7 +40714,7 @@
       <c r="R762" s="5"/>
       <c r="S762" s="5"/>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A763" s="6">
         <v>45653</v>
       </c>
@@ -40765,7 +40765,7 @@
       <c r="R763" s="5"/>
       <c r="S763" s="5"/>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A764" s="6">
         <v>45660</v>
       </c>
@@ -40816,7 +40816,7 @@
       <c r="R764" s="5"/>
       <c r="S764" s="5"/>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A765" s="6">
         <v>45667</v>
       </c>
@@ -40871,7 +40871,7 @@
       <c r="R765" s="5"/>
       <c r="S765" s="5"/>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A766" s="6">
         <v>45674</v>
       </c>
@@ -40926,7 +40926,7 @@
       <c r="R766" s="5"/>
       <c r="S766" s="5"/>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A767" s="6">
         <v>45681</v>
       </c>
@@ -40981,7 +40981,7 @@
       <c r="R767" s="5"/>
       <c r="S767" s="5"/>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A768" s="6">
         <v>45695</v>
       </c>
@@ -41036,7 +41036,7 @@
       <c r="R768" s="5"/>
       <c r="S768" s="5"/>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A769" s="6">
         <v>45702</v>
       </c>
@@ -41091,7 +41091,7 @@
       <c r="R769" s="5"/>
       <c r="S769" s="5"/>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A770" s="6">
         <v>45709</v>
       </c>
@@ -41146,7 +41146,7 @@
       <c r="R770" s="5"/>
       <c r="S770" s="5"/>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A771" s="6">
         <v>45716</v>
       </c>
@@ -41201,7 +41201,7 @@
       <c r="R771" s="5"/>
       <c r="S771" s="5"/>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A772" s="6">
         <v>45723</v>
       </c>
@@ -41256,7 +41256,7 @@
       <c r="R772" s="5"/>
       <c r="S772" s="5"/>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A773" s="6">
         <v>45730</v>
       </c>
@@ -41311,7 +41311,7 @@
       <c r="R773" s="5"/>
       <c r="S773" s="5"/>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A774" s="6">
         <v>45737</v>
       </c>
@@ -41366,7 +41366,7 @@
       <c r="R774" s="5"/>
       <c r="S774" s="5"/>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A775" s="6">
         <v>45744</v>
       </c>
@@ -41421,7 +41421,7 @@
       <c r="R775" s="5"/>
       <c r="S775" s="5"/>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A776" s="6">
         <v>45751</v>
       </c>
@@ -41476,7 +41476,7 @@
       <c r="R776" s="5"/>
       <c r="S776" s="5"/>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A777" s="6">
         <v>45758</v>
       </c>
@@ -41531,7 +41531,7 @@
       <c r="R777" s="5"/>
       <c r="S777" s="5"/>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A778" s="6">
         <v>45765</v>
       </c>
@@ -41586,7 +41586,7 @@
       <c r="R778" s="5"/>
       <c r="S778" s="5"/>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A779" s="6">
         <v>45772</v>
       </c>
@@ -41641,7 +41641,7 @@
       <c r="R779" s="5"/>
       <c r="S779" s="5"/>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A780" s="6">
         <v>45779</v>
       </c>
@@ -41696,7 +41696,7 @@
       <c r="R780" s="5"/>
       <c r="S780" s="5"/>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A781" s="6">
         <v>45786</v>
       </c>
@@ -41751,7 +41751,7 @@
       <c r="R781" s="5"/>
       <c r="S781" s="5"/>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A782" s="6">
         <v>45793</v>
       </c>
@@ -41806,7 +41806,7 @@
       <c r="R782" s="5"/>
       <c r="S782" s="5"/>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A783" s="6">
         <v>45800</v>
       </c>
@@ -41861,7 +41861,7 @@
       <c r="R783" s="5"/>
       <c r="S783" s="5"/>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A784" s="6">
         <v>45807</v>
       </c>
@@ -41916,7 +41916,7 @@
       <c r="R784" s="5"/>
       <c r="S784" s="5"/>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A785" s="6">
         <v>45814</v>
       </c>
@@ -41971,7 +41971,7 @@
       <c r="R785" s="5"/>
       <c r="S785" s="5"/>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A786" s="6">
         <v>45821</v>
       </c>
@@ -42026,7 +42026,7 @@
       <c r="R786" s="5"/>
       <c r="S786" s="5"/>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A787" s="6">
         <v>45828</v>
       </c>
@@ -42081,7 +42081,7 @@
       <c r="R787" s="5"/>
       <c r="S787" s="5"/>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A788" s="6">
         <v>45835</v>
       </c>
@@ -42136,7 +42136,7 @@
       <c r="R788" s="5"/>
       <c r="S788" s="5"/>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A789" s="6">
         <v>45842</v>
       </c>
@@ -42191,7 +42191,7 @@
       <c r="R789" s="5"/>
       <c r="S789" s="5"/>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A790" s="6">
         <v>45849</v>
       </c>
@@ -42246,7 +42246,7 @@
       <c r="R790" s="5"/>
       <c r="S790" s="5"/>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A791" s="6">
         <v>45856</v>
       </c>
@@ -42301,7 +42301,7 @@
       <c r="R791" s="5"/>
       <c r="S791" s="5"/>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A792" s="6">
         <v>45863</v>
       </c>
@@ -42356,7 +42356,7 @@
       <c r="R792" s="5"/>
       <c r="S792" s="5"/>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A793" s="6">
         <v>45870</v>
       </c>
@@ -42411,7 +42411,7 @@
       <c r="R793" s="5"/>
       <c r="S793" s="5"/>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A794" s="6">
         <v>45877</v>
       </c>
@@ -42466,7 +42466,7 @@
       <c r="R794" s="5"/>
       <c r="S794" s="5"/>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A795" s="6">
         <v>45884</v>
       </c>
@@ -42521,7 +42521,7 @@
       <c r="R795" s="5"/>
       <c r="S795" s="5"/>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A796" s="6">
         <v>45891</v>
       </c>
@@ -42576,7 +42576,7 @@
       <c r="R796" s="5"/>
       <c r="S796" s="5"/>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A797" s="6">
         <v>45898</v>
       </c>
@@ -42631,7 +42631,7 @@
       <c r="R797" s="5"/>
       <c r="S797" s="5"/>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A798" s="6">
         <v>45905</v>
       </c>
@@ -42686,7 +42686,7 @@
       <c r="R798" s="5"/>
       <c r="S798" s="5"/>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A799" s="6">
         <v>45912</v>
       </c>
@@ -42741,7 +42741,7 @@
       <c r="R799" s="5"/>
       <c r="S799" s="5"/>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A800" s="6">
         <v>45919</v>
       </c>
@@ -42796,7 +42796,7 @@
       <c r="R800" s="5"/>
       <c r="S800" s="5"/>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A801" s="6">
         <v>45926</v>
       </c>
@@ -42851,7 +42851,7 @@
       <c r="R801" s="5"/>
       <c r="S801" s="5"/>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A802" s="6">
         <v>45940</v>
       </c>
@@ -42906,7 +42906,7 @@
       <c r="R802" s="5"/>
       <c r="S802" s="5"/>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A803" s="6">
         <v>45947</v>
       </c>
@@ -42961,7 +42961,7 @@
       <c r="R803" s="5"/>
       <c r="S803" s="5"/>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A804" s="6">
         <v>45954</v>
       </c>
@@ -43016,7 +43016,7 @@
       <c r="R804" s="5"/>
       <c r="S804" s="5"/>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A805" s="6">
         <v>45961</v>
       </c>
@@ -43071,7 +43071,7 @@
       <c r="R805" s="5"/>
       <c r="S805" s="5"/>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A806" s="7">
         <v>45968</v>
       </c>
@@ -43126,7 +43126,7 @@
       <c r="R806" s="8"/>
       <c r="S806" s="8"/>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A807" s="6">
         <v>45975</v>
       </c>
@@ -43179,7 +43179,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A808" s="9">
         <v>45982</v>
       </c>
@@ -43234,7 +43234,7 @@
       <c r="R808" s="10"/>
       <c r="S808" s="10"/>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A809" s="6">
         <v>45989</v>
       </c>
@@ -43289,7 +43289,7 @@
       <c r="R809" s="10"/>
       <c r="S809" s="10"/>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A810" s="9">
         <v>45996</v>
       </c>
@@ -43342,7 +43342,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A811" s="6">
         <v>46003</v>
       </c>
@@ -43395,7 +43395,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A812" s="9">
         <v>46010</v>
       </c>
@@ -43448,57 +43448,110 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A813" s="6">
         <v>46017</v>
       </c>
-      <c r="B813" s="11">
+      <c r="B813" s="10">
         <v>1656.32</v>
       </c>
-      <c r="C813" s="11">
+      <c r="C813" s="10">
         <v>1346</v>
       </c>
-      <c r="D813" s="11">
+      <c r="D813" s="10">
         <v>321</v>
       </c>
-      <c r="E813" s="11">
+      <c r="E813" s="10">
         <v>2182</v>
       </c>
-      <c r="F813" s="11">
+      <c r="F813" s="10">
         <v>3033</v>
       </c>
-      <c r="G813" s="11">
+      <c r="G813" s="10">
         <v>1690</v>
       </c>
-      <c r="H813" s="11">
+      <c r="H813" s="10">
         <v>142</v>
       </c>
-      <c r="I813" s="11">
+      <c r="I813" s="10">
         <v>3143</v>
       </c>
-      <c r="J813" s="11">
+      <c r="J813" s="10">
         <v>2120</v>
       </c>
-      <c r="K813" s="11">
+      <c r="K813" s="10">
         <v>2356</v>
       </c>
-      <c r="L813" s="11">
+      <c r="L813" s="10">
         <v>1292</v>
       </c>
-      <c r="M813" s="11">
+      <c r="M813" s="10">
         <v>548</v>
       </c>
-      <c r="N813" s="11">
+      <c r="N813" s="10">
         <v>3201</v>
       </c>
-      <c r="O813" s="11">
+      <c r="O813" s="10">
         <v>312</v>
       </c>
-      <c r="P813" s="11">
+      <c r="P813" s="10">
         <v>2188</v>
       </c>
-      <c r="Q813" s="11">
+      <c r="Q813" s="10">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="814" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A814" s="6">
+        <v>46031</v>
+      </c>
+      <c r="B814" s="11">
+        <v>1647.39</v>
+      </c>
+      <c r="C814" s="11">
+        <v>1281</v>
+      </c>
+      <c r="D814" s="11">
+        <v>321</v>
+      </c>
+      <c r="E814" s="11">
+        <v>2094</v>
+      </c>
+      <c r="F814" s="11">
+        <v>3128</v>
+      </c>
+      <c r="G814" s="11">
+        <v>1719</v>
+      </c>
+      <c r="H814" s="11">
+        <v>142</v>
+      </c>
+      <c r="I814" s="11">
+        <v>3232</v>
+      </c>
+      <c r="J814" s="11">
+        <v>1981</v>
+      </c>
+      <c r="K814" s="11">
+        <v>2407</v>
+      </c>
+      <c r="L814" s="11">
+        <v>1208</v>
+      </c>
+      <c r="M814" s="11">
+        <v>524</v>
+      </c>
+      <c r="N814" s="11">
+        <v>3264</v>
+      </c>
+      <c r="O814" s="11">
+        <v>312</v>
+      </c>
+      <c r="P814" s="11">
+        <v>2218</v>
+      </c>
+      <c r="Q814" s="11">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Market-SCFI-Trends.xlsx
+++ b/Data/Market-SCFI-Trends.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29712"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743FB03-5A23-462F-B07A-98CD9E27E145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF9422-D1D2-467B-89E6-1CD1824D24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13560" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S814"/>
+  <dimension ref="A1:S815"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B775" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A814" sqref="A814"/>
+      <selection pane="bottomRight" activeCell="A815" sqref="A815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43505,53 +43505,106 @@
       <c r="A814" s="6">
         <v>46031</v>
       </c>
-      <c r="B814" s="11">
+      <c r="B814" s="10">
         <v>1647.39</v>
       </c>
-      <c r="C814" s="11">
+      <c r="C814" s="10">
         <v>1281</v>
       </c>
-      <c r="D814" s="11">
+      <c r="D814" s="10">
         <v>321</v>
       </c>
-      <c r="E814" s="11">
+      <c r="E814" s="10">
         <v>2094</v>
       </c>
-      <c r="F814" s="11">
+      <c r="F814" s="10">
         <v>3128</v>
       </c>
-      <c r="G814" s="11">
+      <c r="G814" s="10">
         <v>1719</v>
       </c>
-      <c r="H814" s="11">
+      <c r="H814" s="10">
         <v>142</v>
       </c>
-      <c r="I814" s="11">
+      <c r="I814" s="10">
         <v>3232</v>
       </c>
-      <c r="J814" s="11">
+      <c r="J814" s="10">
         <v>1981</v>
       </c>
-      <c r="K814" s="11">
+      <c r="K814" s="10">
         <v>2407</v>
       </c>
-      <c r="L814" s="11">
+      <c r="L814" s="10">
         <v>1208</v>
       </c>
-      <c r="M814" s="11">
+      <c r="M814" s="10">
         <v>524</v>
       </c>
-      <c r="N814" s="11">
+      <c r="N814" s="10">
         <v>3264</v>
       </c>
-      <c r="O814" s="11">
+      <c r="O814" s="10">
         <v>312</v>
       </c>
-      <c r="P814" s="11">
+      <c r="P814" s="10">
         <v>2218</v>
       </c>
-      <c r="Q814" s="11">
+      <c r="Q814" s="10">
         <v>1026</v>
+      </c>
+    </row>
+    <row r="815" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A815" s="6">
+        <v>46038</v>
+      </c>
+      <c r="B815" s="11">
+        <v>1574.12</v>
+      </c>
+      <c r="C815" s="11">
+        <v>1151</v>
+      </c>
+      <c r="D815" s="11">
+        <v>321</v>
+      </c>
+      <c r="E815" s="11">
+        <v>1953</v>
+      </c>
+      <c r="F815" s="11">
+        <v>3165</v>
+      </c>
+      <c r="G815" s="11">
+        <v>1676</v>
+      </c>
+      <c r="H815" s="11">
+        <v>144</v>
+      </c>
+      <c r="I815" s="11">
+        <v>2983</v>
+      </c>
+      <c r="J815" s="11">
+        <v>1694</v>
+      </c>
+      <c r="K815" s="11">
+        <v>2259</v>
+      </c>
+      <c r="L815" s="11">
+        <v>1195</v>
+      </c>
+      <c r="M815" s="11">
+        <v>515</v>
+      </c>
+      <c r="N815" s="11">
+        <v>3192</v>
+      </c>
+      <c r="O815" s="11">
+        <v>312</v>
+      </c>
+      <c r="P815" s="11">
+        <v>2194</v>
+      </c>
+      <c r="Q815" s="11">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Market-SCFI-Trends.xlsx
+++ b/Data/Market-SCFI-Trends.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF9422-D1D2-467B-89E6-1CD1824D24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E1094-7CEB-4A56-A27A-EEB981AEACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13560" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S815"/>
+  <dimension ref="A1:S816"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B775" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B793" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A815" sqref="A815"/>
+      <selection pane="bottomRight" activeCell="A816" sqref="A816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43558,53 +43558,106 @@
       <c r="A815" s="6">
         <v>46038</v>
       </c>
-      <c r="B815" s="11">
+      <c r="B815" s="10">
         <v>1574.12</v>
       </c>
-      <c r="C815" s="11">
+      <c r="C815" s="10">
         <v>1151</v>
       </c>
-      <c r="D815" s="11">
+      <c r="D815" s="10">
         <v>321</v>
       </c>
-      <c r="E815" s="11">
+      <c r="E815" s="10">
         <v>1953</v>
       </c>
-      <c r="F815" s="11">
+      <c r="F815" s="10">
         <v>3165</v>
       </c>
-      <c r="G815" s="11">
+      <c r="G815" s="10">
         <v>1676</v>
       </c>
-      <c r="H815" s="11">
+      <c r="H815" s="10">
         <v>144</v>
       </c>
-      <c r="I815" s="11">
+      <c r="I815" s="10">
         <v>2983</v>
       </c>
-      <c r="J815" s="11">
+      <c r="J815" s="10">
         <v>1694</v>
       </c>
-      <c r="K815" s="11">
+      <c r="K815" s="10">
         <v>2259</v>
       </c>
-      <c r="L815" s="11">
+      <c r="L815" s="10">
         <v>1195</v>
       </c>
-      <c r="M815" s="11">
+      <c r="M815" s="10">
         <v>515</v>
       </c>
-      <c r="N815" s="11">
+      <c r="N815" s="10">
         <v>3192</v>
       </c>
-      <c r="O815" s="11">
+      <c r="O815" s="10">
         <v>312</v>
       </c>
-      <c r="P815" s="11">
+      <c r="P815" s="10">
         <v>2194</v>
       </c>
-      <c r="Q815" s="11">
+      <c r="Q815" s="10">
         <v>1001</v>
+      </c>
+    </row>
+    <row r="816" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A816" s="6">
+        <v>46045</v>
+      </c>
+      <c r="B816" s="11">
+        <v>1457.86</v>
+      </c>
+      <c r="C816" s="11">
+        <v>1029</v>
+      </c>
+      <c r="D816" s="11">
+        <v>321</v>
+      </c>
+      <c r="E816" s="11">
+        <v>1842</v>
+      </c>
+      <c r="F816" s="11">
+        <v>2896</v>
+      </c>
+      <c r="G816" s="11">
+        <v>1595</v>
+      </c>
+      <c r="H816" s="11">
+        <v>144</v>
+      </c>
+      <c r="I816" s="11">
+        <v>2756</v>
+      </c>
+      <c r="J816" s="11">
+        <v>1288</v>
+      </c>
+      <c r="K816" s="11">
+        <v>2144</v>
+      </c>
+      <c r="L816" s="11">
+        <v>1153</v>
+      </c>
+      <c r="M816" s="11">
+        <v>496</v>
+      </c>
+      <c r="N816" s="11">
+        <v>3141</v>
+      </c>
+      <c r="O816" s="11">
+        <v>312</v>
+      </c>
+      <c r="P816" s="11">
+        <v>2084</v>
+      </c>
+      <c r="Q816" s="11">
+        <v>939</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Market-SCFI-Trends.xlsx
+++ b/Data/Market-SCFI-Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8E1094-7CEB-4A56-A27A-EEB981AEACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667679C5-7C9D-47C9-8FE7-B65958BE4F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIN Timeseries - W" sheetId="2" r:id="rId1"/>
@@ -532,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S816"/>
+  <dimension ref="A1:S817"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B793" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B805" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A816" sqref="A816"/>
+      <selection pane="bottomRight" activeCell="A817" sqref="A817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43611,53 +43611,106 @@
       <c r="A816" s="6">
         <v>46045</v>
       </c>
-      <c r="B816" s="11">
+      <c r="B816" s="10">
         <v>1457.86</v>
       </c>
-      <c r="C816" s="11">
+      <c r="C816" s="10">
         <v>1029</v>
       </c>
-      <c r="D816" s="11">
+      <c r="D816" s="10">
         <v>321</v>
       </c>
-      <c r="E816" s="11">
+      <c r="E816" s="10">
         <v>1842</v>
       </c>
-      <c r="F816" s="11">
+      <c r="F816" s="10">
         <v>2896</v>
       </c>
-      <c r="G816" s="11">
+      <c r="G816" s="10">
         <v>1595</v>
       </c>
-      <c r="H816" s="11">
+      <c r="H816" s="10">
         <v>144</v>
       </c>
-      <c r="I816" s="11">
+      <c r="I816" s="10">
         <v>2756</v>
       </c>
-      <c r="J816" s="11">
+      <c r="J816" s="10">
         <v>1288</v>
       </c>
-      <c r="K816" s="11">
+      <c r="K816" s="10">
         <v>2144</v>
       </c>
-      <c r="L816" s="11">
+      <c r="L816" s="10">
         <v>1153</v>
       </c>
-      <c r="M816" s="11">
+      <c r="M816" s="10">
         <v>496</v>
       </c>
-      <c r="N816" s="11">
+      <c r="N816" s="10">
         <v>3141</v>
       </c>
-      <c r="O816" s="11">
+      <c r="O816" s="10">
         <v>312</v>
       </c>
-      <c r="P816" s="11">
+      <c r="P816" s="10">
         <v>2084</v>
       </c>
-      <c r="Q816" s="11">
+      <c r="Q816" s="10">
         <v>939</v>
+      </c>
+    </row>
+    <row r="817" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A817" s="6">
+        <v>46052</v>
+      </c>
+      <c r="B817" s="11">
+        <v>1316.75</v>
+      </c>
+      <c r="C817" s="11">
+        <v>870</v>
+      </c>
+      <c r="D817" s="11">
+        <v>321</v>
+      </c>
+      <c r="E817" s="11">
+        <v>1744</v>
+      </c>
+      <c r="F817" s="11">
+        <v>2605</v>
+      </c>
+      <c r="G817" s="11">
+        <v>1418</v>
+      </c>
+      <c r="H817" s="11">
+        <v>144</v>
+      </c>
+      <c r="I817" s="11">
+        <v>2424</v>
+      </c>
+      <c r="J817" s="11">
+        <v>997</v>
+      </c>
+      <c r="K817" s="11">
+        <v>2059</v>
+      </c>
+      <c r="L817" s="11">
+        <v>1131</v>
+      </c>
+      <c r="M817" s="11">
+        <v>483</v>
+      </c>
+      <c r="N817" s="11">
+        <v>3074</v>
+      </c>
+      <c r="O817" s="11">
+        <v>312</v>
+      </c>
+      <c r="P817" s="11">
+        <v>1867</v>
+      </c>
+      <c r="Q817" s="11">
+        <v>877</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Market-SCFI-Trends.xlsx
+++ b/Data/Market-SCFI-Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29803"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Applications\Cursor\Shipping Schedule\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667679C5-7C9D-47C9-8FE7-B65958BE4F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE5E5B3-D075-4051-BDAE-B773066F2CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIN Timeseries - W" sheetId="2" r:id="rId1"/>
@@ -532,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S817"/>
+  <dimension ref="A1:S818"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B805" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A817" sqref="A817"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43664,53 +43664,106 @@
       <c r="A817" s="6">
         <v>46052</v>
       </c>
-      <c r="B817" s="11">
+      <c r="B817" s="10">
         <v>1316.75</v>
       </c>
-      <c r="C817" s="11">
+      <c r="C817" s="10">
         <v>870</v>
       </c>
-      <c r="D817" s="11">
+      <c r="D817" s="10">
         <v>321</v>
       </c>
-      <c r="E817" s="11">
+      <c r="E817" s="10">
         <v>1744</v>
       </c>
-      <c r="F817" s="11">
+      <c r="F817" s="10">
         <v>2605</v>
       </c>
-      <c r="G817" s="11">
+      <c r="G817" s="10">
         <v>1418</v>
       </c>
-      <c r="H817" s="11">
+      <c r="H817" s="10">
         <v>144</v>
       </c>
-      <c r="I817" s="11">
+      <c r="I817" s="10">
         <v>2424</v>
       </c>
-      <c r="J817" s="11">
+      <c r="J817" s="10">
         <v>997</v>
       </c>
-      <c r="K817" s="11">
+      <c r="K817" s="10">
         <v>2059</v>
       </c>
-      <c r="L817" s="11">
+      <c r="L817" s="10">
         <v>1131</v>
       </c>
-      <c r="M817" s="11">
+      <c r="M817" s="10">
         <v>483</v>
       </c>
-      <c r="N817" s="11">
+      <c r="N817" s="10">
         <v>3074</v>
       </c>
-      <c r="O817" s="11">
+      <c r="O817" s="10">
         <v>312</v>
       </c>
-      <c r="P817" s="11">
+      <c r="P817" s="10">
         <v>1867</v>
       </c>
-      <c r="Q817" s="11">
+      <c r="Q817" s="10">
         <v>877</v>
+      </c>
+    </row>
+    <row r="818" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A818" s="6">
+        <v>46059</v>
+      </c>
+      <c r="B818" s="11">
+        <v>1266.56</v>
+      </c>
+      <c r="C818" s="11">
+        <v>745</v>
+      </c>
+      <c r="D818" s="11">
+        <v>321</v>
+      </c>
+      <c r="E818" s="11">
+        <v>1693</v>
+      </c>
+      <c r="F818" s="11">
+        <v>2530</v>
+      </c>
+      <c r="G818" s="11">
+        <v>1403</v>
+      </c>
+      <c r="H818" s="11">
+        <v>139</v>
+      </c>
+      <c r="I818" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J818" s="11">
+        <v>917</v>
+      </c>
+      <c r="K818" s="11">
+        <v>1938</v>
+      </c>
+      <c r="L818" s="11">
+        <v>1136</v>
+      </c>
+      <c r="M818" s="11">
+        <v>461</v>
+      </c>
+      <c r="N818" s="11">
+        <v>3024</v>
+      </c>
+      <c r="O818" s="11">
+        <v>312</v>
+      </c>
+      <c r="P818" s="11">
+        <v>1801</v>
+      </c>
+      <c r="Q818" s="11">
+        <v>932</v>
       </c>
     </row>
   </sheetData>
